--- a/Jashera 2021/Список для страховки.xlsx
+++ b/Jashera 2021/Список для страховки.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Список для страховки" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Список для страховки'!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Список для страховки'!$A$1:$F$45</definedName>
     <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
     <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
   </definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="146">
   <si>
     <t>Фамилия</t>
   </si>
@@ -43,198 +43,204 @@
     <t>Номер удостоверения личности</t>
   </si>
   <si>
+    <t>От несчастного случая</t>
+  </si>
+  <si>
+    <t>Антиклещ</t>
+  </si>
+  <si>
+    <t>Федорова</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Свидетельство о рождении</t>
+  </si>
+  <si>
+    <t>II-АК 789060</t>
+  </si>
+  <si>
+    <t>Богатушин</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Антонович</t>
+  </si>
+  <si>
+    <t>IV-АК 642339</t>
+  </si>
+  <si>
+    <t>Белокуров</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>Евдокимова</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Нематова</t>
+  </si>
+  <si>
+    <t>Рената</t>
+  </si>
+  <si>
+    <t>Батировна</t>
+  </si>
+  <si>
+    <t>Кудряшов</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
     <t>Демидова</t>
   </si>
   <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Витальевна</t>
+  </si>
+  <si>
+    <t>II-АК 649071</t>
+  </si>
+  <si>
+    <t>Островский</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Владиславович</t>
+  </si>
+  <si>
+    <t>II-АК 745451</t>
+  </si>
+  <si>
+    <t>Кудрина</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Васильевна</t>
+  </si>
+  <si>
+    <t>II-АК 703341</t>
+  </si>
+  <si>
+    <t>Зиглина</t>
+  </si>
+  <si>
+    <t>Софья</t>
+  </si>
+  <si>
+    <t>Антоновна</t>
+  </si>
+  <si>
+    <t>Шишкина</t>
+  </si>
+  <si>
+    <t>Денисовна</t>
+  </si>
+  <si>
+    <t>Мелентьева</t>
+  </si>
+  <si>
+    <t>Эмма</t>
+  </si>
+  <si>
+    <t>Алексевна</t>
+  </si>
+  <si>
+    <t>III-МЮ 874452</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>Василий</t>
+  </si>
+  <si>
+    <t>I -РК 818754</t>
+  </si>
+  <si>
+    <t>Махнюк</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Петровна</t>
+  </si>
+  <si>
+    <t>Атаманов</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>02.03.0005</t>
+  </si>
+  <si>
+    <t>Каретная</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>II-АК 606923</t>
+  </si>
+  <si>
+    <t>Ершова</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>I-ВО 645042</t>
+  </si>
+  <si>
+    <t>Семенова</t>
+  </si>
+  <si>
     <t>Елизавета</t>
   </si>
   <si>
     <t>Викторовна</t>
   </si>
   <si>
-    <t>Паспорт</t>
-  </si>
-  <si>
-    <t>Федорова</t>
-  </si>
-  <si>
-    <t>Ксения</t>
-  </si>
-  <si>
-    <t>Сергеевна</t>
-  </si>
-  <si>
-    <t>Свидетельство о рождении</t>
-  </si>
-  <si>
-    <t>II-АК 789060</t>
-  </si>
-  <si>
-    <t>Богатушин</t>
-  </si>
-  <si>
-    <t>Матвей</t>
-  </si>
-  <si>
-    <t>Антонович</t>
-  </si>
-  <si>
-    <t>IV-АК 642339</t>
-  </si>
-  <si>
-    <t>Белокуров</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>Евдокимова</t>
-  </si>
-  <si>
-    <t>Алёна</t>
-  </si>
-  <si>
-    <t>Игоревна</t>
-  </si>
-  <si>
-    <t>Нематова</t>
-  </si>
-  <si>
-    <t>Рената</t>
-  </si>
-  <si>
-    <t>Батировна</t>
-  </si>
-  <si>
-    <t>Кудряшов</t>
-  </si>
-  <si>
-    <t>Тимофей</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>Алина</t>
-  </si>
-  <si>
-    <t>Витальевна</t>
-  </si>
-  <si>
-    <t>II-АК 649071</t>
-  </si>
-  <si>
-    <t>Островский</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>Владиславович</t>
-  </si>
-  <si>
-    <t>II-АК 745451</t>
-  </si>
-  <si>
-    <t>Кудрина</t>
-  </si>
-  <si>
-    <t>Александра</t>
-  </si>
-  <si>
-    <t>Васильевна</t>
-  </si>
-  <si>
-    <t>II-АК 703341</t>
-  </si>
-  <si>
-    <t>Зиглина</t>
-  </si>
-  <si>
-    <t>Софья</t>
-  </si>
-  <si>
-    <t>Антоновна</t>
-  </si>
-  <si>
-    <t>Шишкина</t>
-  </si>
-  <si>
-    <t>Денисовна</t>
-  </si>
-  <si>
-    <t>Мелентьева</t>
-  </si>
-  <si>
-    <t>Эмма</t>
-  </si>
-  <si>
-    <t>Алексевна</t>
-  </si>
-  <si>
-    <t>III-МЮ 874452</t>
-  </si>
-  <si>
-    <t>Попов</t>
-  </si>
-  <si>
-    <t>Василий</t>
-  </si>
-  <si>
-    <t>I -РК 818754</t>
-  </si>
-  <si>
-    <t>Махнюк</t>
-  </si>
-  <si>
-    <t>Арина</t>
-  </si>
-  <si>
-    <t>Петровна</t>
-  </si>
-  <si>
-    <t>Атаманов</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>02.03.0005</t>
-  </si>
-  <si>
-    <t>Каретная</t>
-  </si>
-  <si>
-    <t>Вероника</t>
-  </si>
-  <si>
-    <t>Михайловна</t>
-  </si>
-  <si>
-    <t>II-АК 606923</t>
-  </si>
-  <si>
-    <t>Ершова</t>
-  </si>
-  <si>
-    <t>Татьяна</t>
-  </si>
-  <si>
-    <t>Алексеевна</t>
-  </si>
-  <si>
-    <t>I-ВО 645042</t>
-  </si>
-  <si>
-    <t>Семенова</t>
-  </si>
-  <si>
     <t>II-АК № 689853</t>
   </si>
   <si>
@@ -380,15 +386,6 @@
   </si>
   <si>
     <t>Олеговна</t>
-  </si>
-  <si>
-    <t>Юрков</t>
-  </si>
-  <si>
-    <t>Глеб</t>
-  </si>
-  <si>
-    <t>Маркович</t>
   </si>
   <si>
     <t>Кайбанова</t>
@@ -471,11 +468,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -488,7 +485,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -508,92 +504,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -613,7 +524,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,8 +582,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +636,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -665,25 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,19 +696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,37 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,19 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,55 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +775,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,9 +871,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,21 +885,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,17 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -944,6 +915,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,16 +971,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,138 +992,138 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,14 +1132,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1506,13 +1500,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
@@ -1522,7 +1516,7 @@
     <col min="6" max="6" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:6">
+    <row r="1" ht="15.15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1541,946 +1535,1115 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>38478</v>
+        <v>40195</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>39606</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>38553</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4019397258</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>38137</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4018085917</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>38051</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4018034409</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>38434</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4018287872</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39554</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40070</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>39892</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4">
+        <v>38518</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4019418643</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4">
+        <v>38070</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4018029738</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39581</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4">
+        <v>39331</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4">
+        <v>38801</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4019601130</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4018281460</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4">
+        <v>39485</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4">
+        <v>39166</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="15.15" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4">
+        <v>39875</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4">
+        <v>39035</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4020736285</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4">
+        <v>39617</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4">
+        <v>39038</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4020739531</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4">
+        <v>38174</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4018136949</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
-        <v>4019355938</v>
-      </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>40195</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="15.15" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4">
-        <v>39606</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="15.15" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4">
+        <v>38262</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>38553</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4019397258</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4">
-        <v>38137</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4018085917</v>
-      </c>
-    </row>
-    <row r="7" ht="15.15" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4">
-        <v>38051</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4018034409</v>
-      </c>
-    </row>
-    <row r="8" ht="15.15" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4">
-        <v>38434</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4018287872</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4">
-        <v>39554</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4">
-        <v>40070</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="15.15" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4">
-        <v>39892</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4">
-        <v>38518</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4019418643</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4">
-        <v>38070</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4018029738</v>
-      </c>
-    </row>
-    <row r="14" ht="15.15" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4">
-        <v>39581</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="15.15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4">
-        <v>39331</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" ht="15.15" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="4">
-        <v>38801</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4019601130</v>
-      </c>
-    </row>
-    <row r="17" ht="15.15" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4018281460</v>
-      </c>
-    </row>
-    <row r="18" ht="15.15" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="4">
-        <v>39485</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="15.15" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="4">
-        <v>39166</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="15.15" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4">
-        <v>39875</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" ht="15.15" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="4">
-        <v>39035</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="5">
-        <v>4020736285</v>
-      </c>
-    </row>
-    <row r="23" ht="15.15" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4">
-        <v>39617</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="4">
-        <v>39038</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4020739531</v>
-      </c>
-    </row>
-    <row r="25" ht="15.15" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="4">
-        <v>38174</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F25" s="5">
-        <v>4018136949</v>
-      </c>
-    </row>
-    <row r="26" ht="15.15" spans="1:6">
+        <v>4018191555</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="4">
-        <v>38262</v>
+        <v>39448</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4018191555</v>
-      </c>
-    </row>
-    <row r="27" ht="15.15" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4">
-        <v>39448</v>
+        <v>39585</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" ht="15.15" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
+        <v>39367</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="4">
+        <v>39154</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4020821522</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="4">
-        <v>39585</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" ht="15.15" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D30" s="4">
+        <v>39766</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4">
+        <v>39649</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4">
+        <v>39338</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="4">
+        <v>38629</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4120044197</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="4">
+        <v>39707</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="4">
+        <v>38766</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4020736493</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4">
+        <v>37823</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="5">
+        <v>4018019795</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>39656</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="4">
+        <v>39409</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="4">
+        <v>39053</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4020761929</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="4">
+        <v>39313</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="4">
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="4">
         <v>39367</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4">
-        <v>39154</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4020821522</v>
-      </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="4">
-        <v>39766</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" ht="15.15" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4">
-        <v>39649</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" ht="15.15" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="4">
-        <v>39338</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" ht="15.15" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="4">
-        <v>38629</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4120044197</v>
-      </c>
-    </row>
-    <row r="35" ht="15.15" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="4">
-        <v>39707</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" ht="15.15" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="4">
+        <v>39402</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="4">
-        <v>38766</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4020736493</v>
-      </c>
-    </row>
-    <row r="37" ht="15.15" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D43" s="4">
+        <v>39169</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="4">
+        <v>38558</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4019410705</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="4">
-        <v>37823</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5">
-        <v>4018019795</v>
-      </c>
-    </row>
-    <row r="38" ht="15.15" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="4">
-        <v>37703</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="5">
-        <v>201717742251</v>
-      </c>
-    </row>
-    <row r="39" ht="15.15" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="4">
-        <v>39656</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" ht="15.15" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D45" s="7">
+        <v>40103</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="4">
+        <v>38478</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="5">
+        <v>4019355938</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="13.2" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="4">
-        <v>39409</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" ht="15.15" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="4">
-        <v>39053</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="5">
-        <v>4020761929</v>
-      </c>
-    </row>
-    <row r="42" ht="15.15" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="4">
-        <v>39313</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="4">
-        <v>39367</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="4">
-        <v>39402</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" ht="15.15" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4">
-        <v>39169</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" ht="15.15" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="4">
-        <v>38558</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="5">
-        <v>4019410705</v>
-      </c>
-    </row>
-    <row r="47" ht="15.15" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="7">
-        <v>40103</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" ht="15.15" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="13.2" spans="1:4">
-      <c r="A49" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.2" spans="1:4">
-      <c r="A50" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>116</v>
+    <row r="50" s="1" customFormat="1" ht="13.95" spans="1:4">
+      <c r="A50" s="1">
+        <v>89217427984</v>
       </c>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.95" spans="1:4">
-      <c r="A51" s="1">
-        <v>89217427984</v>
-      </c>
-      <c r="D51" s="9"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" ht="15.15" spans="1:6">
       <c r="A52" s="3"/>
@@ -3226,24 +3389,8 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" ht="15.15" spans="1:6">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" ht="15.15" spans="1:6">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F47">
+  <autoFilter ref="A1:F45">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
